--- a/static/2025-07-24 FINAL_TEMPLATE.xlsx
+++ b/static/2025-07-24 FINAL_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dksh-my.sharepoint.com/personal/khunakorn_l_dksh_com/Documents/9999-99-99 GitRepo/dksh-raw-tds-parser/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{EF00DFB9-E975-4BB4-AD2B-15D77DC766BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF443AD-BC66-4150-8ED8-F238C4F810EE}"/>
+  <xr:revisionPtr revIDLastSave="700" documentId="8_{EF00DFB9-E975-4BB4-AD2B-15D77DC766BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E4ABC3-CBDA-4A99-BF91-519EEAA56FC1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="6" r:id="rId1"/>
@@ -21,9 +21,11 @@
     <sheet name="SCI" sheetId="1" r:id="rId6"/>
     <sheet name="PickList Ref SFDC" sheetId="3" r:id="rId7"/>
     <sheet name="COST_CALCULATION" sheetId="8" r:id="rId8"/>
+    <sheet name="_" sheetId="10" r:id="rId9"/>
+    <sheet name="FIG1" sheetId="9" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'PickList Ref SFDC'!$A$1:$AT$1</definedName>
@@ -481,7 +483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="1083">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -3911,9 +3913,6 @@
     <t>Cost from OpenAI Web Search</t>
   </si>
   <si>
-    <t>high context</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -3924,6 +3923,66 @@
   </si>
   <si>
     <t>EXPECTED COST PER PRODUCT</t>
+  </si>
+  <si>
+    <t>gpt-4o-high</t>
+  </si>
+  <si>
+    <t>gpt 4.1-mini</t>
+  </si>
+  <si>
+    <t>2025-07-24 V2</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-medium</t>
+  </si>
+  <si>
+    <t>2025-07-24 V3</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-low</t>
+  </si>
+  <si>
+    <t>Prompt token Start</t>
+  </si>
+  <si>
+    <t>Prompt token End</t>
+  </si>
+  <si>
+    <t>Prompt token Use</t>
+  </si>
+  <si>
+    <t>Completion token Start</t>
+  </si>
+  <si>
+    <t>Completion token End</t>
+  </si>
+  <si>
+    <t>Completion token Use</t>
+  </si>
+  <si>
+    <t>OpenAI Start</t>
+  </si>
+  <si>
+    <t>OpenAI End</t>
+  </si>
+  <si>
+    <t>OpenAI Use</t>
+  </si>
+  <si>
+    <t>2025-07-24 V1</t>
+  </si>
+  <si>
+    <t>Search Result</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT </t>
   </si>
 </sst>
 </file>
@@ -4374,7 +4433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4634,18 +4693,6 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4663,7 +4710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4677,11 +4723,40 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4751,6 +4826,400 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39397208-B81B-FE0B-3948-AA01FA960AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5974080" y="601980"/>
+          <a:ext cx="952500" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="ChatGPT - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F855E6E1-8DE2-9724-AA01-E248D7E84929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7040880" y="998220"/>
+          <a:ext cx="807720" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2913177B-100B-4185-B67A-904C33567396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951220" y="1051560"/>
+          <a:ext cx="929640" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C2F5C1-670C-4458-9CC9-1A091F890AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5943600" y="1569720"/>
+          <a:ext cx="922020" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3DAFD3-0629-4F9F-A619-DEA7357EC097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5928360" y="1706880"/>
+          <a:ext cx="967740" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E21FA8-4409-455B-9280-2C84A161AACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8008620" y="1432560"/>
+          <a:ext cx="1303020" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5958436-65BB-1DC4-75BF-D87D952423B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6598920" y="1844040"/>
+          <a:ext cx="1607820" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Create 120 to 150 words product description from the given data </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5247,7 +5716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5540,6 +6009,74 @@
       </c>
       <c r="C23" s="83" t="s">
         <v>1028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C49D467-05D8-4C04-92B0-214880FE1A74}">
+  <dimension ref="I3:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I3" s="126" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="4" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I4" s="125" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="6" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I6" s="126" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="7" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I7" s="125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="P8" s="127" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="9" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I9" s="126" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P9" s="128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I10" s="125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I12" s="126" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="13" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I13" s="125" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -10762,7 +11299,7 @@
         <v>56</v>
       </c>
       <c r="Z2" s="20"/>
-      <c r="AB2" s="99" t="s">
+      <c r="AB2" s="121" t="s">
         <v>60</v>
       </c>
       <c r="AC2" s="21" t="s">
@@ -10852,7 +11389,7 @@
         <v>64</v>
       </c>
       <c r="Z3" s="20"/>
-      <c r="AB3" s="99"/>
+      <c r="AB3" s="121"/>
       <c r="AC3" s="8" t="s">
         <v>80</v>
       </c>
@@ -10938,7 +11475,7 @@
         <v>64</v>
       </c>
       <c r="Z4" s="20"/>
-      <c r="AB4" s="99"/>
+      <c r="AB4" s="121"/>
       <c r="AC4" s="8" t="s">
         <v>99</v>
       </c>
@@ -11030,7 +11567,7 @@
         <v>64</v>
       </c>
       <c r="Z5" s="20"/>
-      <c r="AB5" s="99"/>
+      <c r="AB5" s="121"/>
       <c r="AC5" s="8" t="s">
         <v>116</v>
       </c>
@@ -11117,7 +11654,7 @@
         <v>131</v>
       </c>
       <c r="AA6" s="28"/>
-      <c r="AB6" s="99"/>
+      <c r="AB6" s="121"/>
       <c r="AC6" s="8" t="s">
         <v>132</v>
       </c>
@@ -11207,7 +11744,7 @@
         <v>64</v>
       </c>
       <c r="Z7" s="20"/>
-      <c r="AB7" s="99"/>
+      <c r="AB7" s="121"/>
       <c r="AC7" s="8" t="s">
         <v>81</v>
       </c>
@@ -11293,7 +11830,7 @@
         <v>56</v>
       </c>
       <c r="Z8" s="20"/>
-      <c r="AB8" s="99"/>
+      <c r="AB8" s="121"/>
       <c r="AC8" s="8" t="s">
         <v>163</v>
       </c>
@@ -11379,7 +11916,7 @@
         <v>56</v>
       </c>
       <c r="Z9" s="20"/>
-      <c r="AB9" s="99"/>
+      <c r="AB9" s="121"/>
       <c r="AC9" s="8" t="s">
         <v>179</v>
       </c>
@@ -11463,7 +12000,7 @@
         <v>56</v>
       </c>
       <c r="Z10" s="20"/>
-      <c r="AB10" s="99"/>
+      <c r="AB10" s="121"/>
       <c r="AC10" s="8" t="s">
         <v>194</v>
       </c>
@@ -11549,11 +12086,11 @@
         <v>79</v>
       </c>
       <c r="Z11" s="20"/>
-      <c r="AB11" s="99"/>
+      <c r="AB11" s="121"/>
       <c r="AC11" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="AD11" s="100" t="s">
+      <c r="AD11" s="122" t="s">
         <v>211</v>
       </c>
       <c r="AF11" s="8" t="s">
@@ -11633,11 +12170,11 @@
         <v>240</v>
       </c>
       <c r="Z12" s="20"/>
-      <c r="AB12" s="99"/>
+      <c r="AB12" s="121"/>
       <c r="AC12" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AD12" s="100"/>
+      <c r="AD12" s="122"/>
       <c r="AF12" s="8" t="s">
         <v>223</v>
       </c>
@@ -11719,11 +12256,11 @@
         <v>148</v>
       </c>
       <c r="Z13" s="20"/>
-      <c r="AB13" s="99"/>
+      <c r="AB13" s="121"/>
       <c r="AC13" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AD13" s="100"/>
+      <c r="AD13" s="122"/>
       <c r="AF13" s="8" t="s">
         <v>144</v>
       </c>
@@ -11801,11 +12338,11 @@
         <v>148</v>
       </c>
       <c r="Z14" s="20"/>
-      <c r="AB14" s="99"/>
+      <c r="AB14" s="121"/>
       <c r="AC14" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="AD14" s="100"/>
+      <c r="AD14" s="122"/>
       <c r="AF14" s="8" t="s">
         <v>254</v>
       </c>
@@ -11883,11 +12420,11 @@
         <v>148</v>
       </c>
       <c r="Z15" s="20"/>
-      <c r="AB15" s="99"/>
+      <c r="AB15" s="121"/>
       <c r="AC15" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="AD15" s="100"/>
+      <c r="AD15" s="122"/>
       <c r="AF15" s="8" t="s">
         <v>267</v>
       </c>
@@ -11965,11 +12502,11 @@
         <v>148</v>
       </c>
       <c r="Z16" s="20"/>
-      <c r="AB16" s="99"/>
+      <c r="AB16" s="121"/>
       <c r="AC16" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="AD16" s="100"/>
+      <c r="AD16" s="122"/>
       <c r="AF16" s="8" t="s">
         <v>175</v>
       </c>
@@ -12047,11 +12584,11 @@
         <v>148</v>
       </c>
       <c r="Z17" s="20"/>
-      <c r="AB17" s="99"/>
+      <c r="AB17" s="121"/>
       <c r="AC17" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="AD17" s="100"/>
+      <c r="AD17" s="122"/>
       <c r="AF17" s="8" t="s">
         <v>126</v>
       </c>
@@ -12137,11 +12674,11 @@
         <v>98</v>
       </c>
       <c r="Z18" s="20"/>
-      <c r="AB18" s="99"/>
+      <c r="AB18" s="121"/>
       <c r="AC18" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AD18" s="100"/>
+      <c r="AD18" s="122"/>
       <c r="AF18" s="8" t="s">
         <v>206</v>
       </c>
@@ -12211,11 +12748,11 @@
         <v>98</v>
       </c>
       <c r="Z19" s="20"/>
-      <c r="AB19" s="99"/>
+      <c r="AB19" s="121"/>
       <c r="AC19" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="AD19" s="100"/>
+      <c r="AD19" s="122"/>
       <c r="AF19" s="8" t="s">
         <v>321</v>
       </c>
@@ -12271,11 +12808,11 @@
         <v>98</v>
       </c>
       <c r="Z20" s="20"/>
-      <c r="AB20" s="99"/>
+      <c r="AB20" s="121"/>
       <c r="AC20" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="AD20" s="100"/>
+      <c r="AD20" s="122"/>
       <c r="AF20" s="8" t="s">
         <v>334</v>
       </c>
@@ -12324,11 +12861,11 @@
         <v>98</v>
       </c>
       <c r="Z21" s="44"/>
-      <c r="AB21" s="99"/>
+      <c r="AB21" s="121"/>
       <c r="AC21" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="AD21" s="100"/>
+      <c r="AD21" s="122"/>
       <c r="AF21" s="8" t="s">
         <v>235</v>
       </c>
@@ -12379,11 +12916,11 @@
       <c r="Z22" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="AB22" s="99"/>
+      <c r="AB22" s="121"/>
       <c r="AC22" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="AD22" s="100"/>
+      <c r="AD22" s="122"/>
       <c r="AF22" s="8" t="s">
         <v>218</v>
       </c>
@@ -12434,11 +12971,11 @@
       <c r="Z23" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="AB23" s="99"/>
+      <c r="AB23" s="121"/>
       <c r="AC23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AD23" s="100"/>
+      <c r="AD23" s="122"/>
       <c r="AF23" s="8" t="s">
         <v>365</v>
       </c>
@@ -16614,127 +17151,381 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5C23C4-F10C-448C-834D-574D9A73C535}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F2" s="101">
-        <v>45862</v>
-      </c>
-      <c r="G2" s="102"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="F3" s="103" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F2" s="123" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G2" s="124"/>
+      <c r="H2" s="123" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I2" s="124"/>
+      <c r="J2" s="123" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K2" s="124"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="F3" s="99" t="s">
         <v>1050</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="100" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="99" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J3" s="99" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K3" s="100" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>1052</v>
       </c>
       <c r="C4" s="20">
         <v>12</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="101" t="s">
         <v>1053</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="102" t="s">
         <v>1054</v>
       </c>
-      <c r="G4" s="107">
+      <c r="G4" s="114">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="113" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I4" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K4" s="116">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
         <v>1055</v>
       </c>
       <c r="C5" s="20">
         <v>12</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="101" t="s">
         <v>1056</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="102" t="s">
         <v>1057</v>
       </c>
-      <c r="G5" s="107">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="114">
+        <v>1.31</v>
+      </c>
+      <c r="H5" s="102" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I5" s="114">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="J5" s="102" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K5" s="114">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="104" t="s">
         <v>975</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="101" t="s">
         <v>1058</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="105" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G6" s="115">
+        <v>1.21</v>
+      </c>
+      <c r="H6" s="105" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I6" s="115">
+        <f>2.21-G6</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="105" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K6" s="115">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="106" t="s">
         <v>1059</v>
       </c>
-      <c r="G6" s="110">
+      <c r="F7" s="107" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G7" s="116">
+        <f>SUM(G4:G6)</f>
+        <v>2.62</v>
+      </c>
+      <c r="H7" s="107" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I7" s="116">
+        <f>SUM(I4:I6)</f>
+        <v>1.1573</v>
+      </c>
+      <c r="J7" s="107" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K7" s="116">
+        <f>SUM(K4:K6)</f>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="109" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G8" s="114">
+        <f>G7*1.3</f>
+        <v>3.4060000000000001</v>
+      </c>
+      <c r="H8" s="110" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I8" s="114">
+        <f>I7*1.3</f>
+        <v>1.5044900000000001</v>
+      </c>
+      <c r="J8" s="110" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K8" s="114">
+        <f>K7*1.3</f>
+        <v>1.3910000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="118" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F9" s="119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G9" s="120">
+        <f>G8/12</f>
+        <v>0.28383333333333333</v>
+      </c>
+      <c r="H9" s="119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I9" s="120">
+        <f>I8/12</f>
+        <v>0.12537416666666668</v>
+      </c>
+      <c r="J9" s="119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K9" s="120">
+        <f>K8/12</f>
+        <v>0.11591666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="113" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I11" s="108">
+        <v>0</v>
+      </c>
+      <c r="J11" s="113" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K11" s="108">
+        <f>I13</f>
+        <v>137990</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H12" s="102" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I12" s="103">
+        <v>137990</v>
+      </c>
+      <c r="J12" s="102" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K12" s="103">
+        <v>267350</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="117" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I13" s="111">
+        <f>I12-I11</f>
+        <v>137990</v>
+      </c>
+      <c r="J13" s="117" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K13" s="111">
+        <f>K12-K11</f>
+        <v>129360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="113" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I14" s="108">
+        <v>0</v>
+      </c>
+      <c r="J14" s="113" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K14" s="108">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="102" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I15" s="103">
+        <v>1760</v>
+      </c>
+      <c r="J15" s="102" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K15" s="103">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="117" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I16" s="111">
+        <f>I15-I14</f>
+        <v>1760</v>
+      </c>
+      <c r="J16" s="117" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K16" s="111">
+        <f>K15-K14</f>
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H17" s="102" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I17" s="103">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="111" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F7" s="112" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G7" s="113">
-        <f>SUM(G4:G6)</f>
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="114" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F8" s="115" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G8" s="107">
-        <f>G7*1.3</f>
-        <v>3.653</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="114" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F9" s="116" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G9" s="117">
-        <f>G8/12</f>
-        <v>0.30441666666666667</v>
+      <c r="J17" s="113" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K17" s="108">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="102" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I18" s="103">
+        <v>2.21</v>
+      </c>
+      <c r="J18" s="102" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K18" s="103">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="117" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I19" s="111">
+        <f>I18-I17</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="117" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K19" s="111">
+        <f>K18-K17</f>
+        <v>0.91000000000000014</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42803ED0-3F2B-4085-A5A7-6E64DCDA9710}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/static/2025-07-24 FINAL_TEMPLATE.xlsx
+++ b/static/2025-07-24 FINAL_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dksh-my.sharepoint.com/personal/khunakorn_l_dksh_com/Documents/9999-99-99 GitRepo/dksh-raw-tds-parser/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="700" documentId="8_{EF00DFB9-E975-4BB4-AD2B-15D77DC766BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E4ABC3-CBDA-4A99-BF91-519EEAA56FC1}"/>
+  <xr:revisionPtr revIDLastSave="825" documentId="8_{EF00DFB9-E975-4BB4-AD2B-15D77DC766BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E0325DA-F42C-4C01-A8E9-63EA0241EFCB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="6" r:id="rId1"/>
@@ -20,12 +20,13 @@
     <sheet name="PHI" sheetId="5" r:id="rId5"/>
     <sheet name="SCI" sheetId="1" r:id="rId6"/>
     <sheet name="PickList Ref SFDC" sheetId="3" r:id="rId7"/>
-    <sheet name="COST_CALCULATION" sheetId="8" r:id="rId8"/>
-    <sheet name="_" sheetId="10" r:id="rId9"/>
-    <sheet name="FIG1" sheetId="9" r:id="rId10"/>
+    <sheet name="COST1" sheetId="8" r:id="rId8"/>
+    <sheet name="COST2" sheetId="11" r:id="rId9"/>
+    <sheet name="_" sheetId="10" r:id="rId10"/>
+    <sheet name="FIG1" sheetId="9" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'PickList Ref SFDC'!$A$1:$AT$1</definedName>
@@ -483,7 +484,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="1087">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -3984,12 +3985,27 @@
   <si>
     <t xml:space="preserve">PRODUCT </t>
   </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>30 PDF - 30 PROD</t>
+  </si>
+  <si>
+    <t>XX PDF - XX PROD</t>
+  </si>
+  <si>
+    <t>31 PDF - 41 PROD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4127,6 +4143,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -4196,7 +4220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -4429,11 +4453,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4741,6 +4774,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4753,10 +4788,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6018,10 +6068,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42803ED0-3F2B-4085-A5A7-6E64DCDA9710}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C49D467-05D8-4C04-92B0-214880FE1A74}">
   <dimension ref="I3:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
@@ -6032,50 +6096,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="122" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="4" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I4" s="125" t="s">
+      <c r="I4" s="121" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="6" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I6" s="126" t="s">
+      <c r="I6" s="122" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="7" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I7" s="125" t="s">
+      <c r="I7" s="121" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="P8" s="127" t="s">
+      <c r="P8" s="44" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="9" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="122" t="s">
         <v>1079</v>
       </c>
-      <c r="P9" s="128" t="s">
+      <c r="P9" s="121" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I10" s="125" t="s">
+      <c r="I10" s="121" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I12" s="126" t="s">
+      <c r="I12" s="122" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="13" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I13" s="125" t="s">
+      <c r="I13" s="121" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11299,7 +11363,7 @@
         <v>56</v>
       </c>
       <c r="Z2" s="20"/>
-      <c r="AB2" s="121" t="s">
+      <c r="AB2" s="123" t="s">
         <v>60</v>
       </c>
       <c r="AC2" s="21" t="s">
@@ -11389,7 +11453,7 @@
         <v>64</v>
       </c>
       <c r="Z3" s="20"/>
-      <c r="AB3" s="121"/>
+      <c r="AB3" s="123"/>
       <c r="AC3" s="8" t="s">
         <v>80</v>
       </c>
@@ -11475,7 +11539,7 @@
         <v>64</v>
       </c>
       <c r="Z4" s="20"/>
-      <c r="AB4" s="121"/>
+      <c r="AB4" s="123"/>
       <c r="AC4" s="8" t="s">
         <v>99</v>
       </c>
@@ -11567,7 +11631,7 @@
         <v>64</v>
       </c>
       <c r="Z5" s="20"/>
-      <c r="AB5" s="121"/>
+      <c r="AB5" s="123"/>
       <c r="AC5" s="8" t="s">
         <v>116</v>
       </c>
@@ -11654,7 +11718,7 @@
         <v>131</v>
       </c>
       <c r="AA6" s="28"/>
-      <c r="AB6" s="121"/>
+      <c r="AB6" s="123"/>
       <c r="AC6" s="8" t="s">
         <v>132</v>
       </c>
@@ -11744,7 +11808,7 @@
         <v>64</v>
       </c>
       <c r="Z7" s="20"/>
-      <c r="AB7" s="121"/>
+      <c r="AB7" s="123"/>
       <c r="AC7" s="8" t="s">
         <v>81</v>
       </c>
@@ -11830,7 +11894,7 @@
         <v>56</v>
       </c>
       <c r="Z8" s="20"/>
-      <c r="AB8" s="121"/>
+      <c r="AB8" s="123"/>
       <c r="AC8" s="8" t="s">
         <v>163</v>
       </c>
@@ -11916,7 +11980,7 @@
         <v>56</v>
       </c>
       <c r="Z9" s="20"/>
-      <c r="AB9" s="121"/>
+      <c r="AB9" s="123"/>
       <c r="AC9" s="8" t="s">
         <v>179</v>
       </c>
@@ -12000,7 +12064,7 @@
         <v>56</v>
       </c>
       <c r="Z10" s="20"/>
-      <c r="AB10" s="121"/>
+      <c r="AB10" s="123"/>
       <c r="AC10" s="8" t="s">
         <v>194</v>
       </c>
@@ -12086,11 +12150,11 @@
         <v>79</v>
       </c>
       <c r="Z11" s="20"/>
-      <c r="AB11" s="121"/>
+      <c r="AB11" s="123"/>
       <c r="AC11" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="AD11" s="122" t="s">
+      <c r="AD11" s="124" t="s">
         <v>211</v>
       </c>
       <c r="AF11" s="8" t="s">
@@ -12170,11 +12234,11 @@
         <v>240</v>
       </c>
       <c r="Z12" s="20"/>
-      <c r="AB12" s="121"/>
+      <c r="AB12" s="123"/>
       <c r="AC12" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AD12" s="122"/>
+      <c r="AD12" s="124"/>
       <c r="AF12" s="8" t="s">
         <v>223</v>
       </c>
@@ -12256,11 +12320,11 @@
         <v>148</v>
       </c>
       <c r="Z13" s="20"/>
-      <c r="AB13" s="121"/>
+      <c r="AB13" s="123"/>
       <c r="AC13" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AD13" s="122"/>
+      <c r="AD13" s="124"/>
       <c r="AF13" s="8" t="s">
         <v>144</v>
       </c>
@@ -12338,11 +12402,11 @@
         <v>148</v>
       </c>
       <c r="Z14" s="20"/>
-      <c r="AB14" s="121"/>
+      <c r="AB14" s="123"/>
       <c r="AC14" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="AD14" s="122"/>
+      <c r="AD14" s="124"/>
       <c r="AF14" s="8" t="s">
         <v>254</v>
       </c>
@@ -12420,11 +12484,11 @@
         <v>148</v>
       </c>
       <c r="Z15" s="20"/>
-      <c r="AB15" s="121"/>
+      <c r="AB15" s="123"/>
       <c r="AC15" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="AD15" s="122"/>
+      <c r="AD15" s="124"/>
       <c r="AF15" s="8" t="s">
         <v>267</v>
       </c>
@@ -12502,11 +12566,11 @@
         <v>148</v>
       </c>
       <c r="Z16" s="20"/>
-      <c r="AB16" s="121"/>
+      <c r="AB16" s="123"/>
       <c r="AC16" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="AD16" s="122"/>
+      <c r="AD16" s="124"/>
       <c r="AF16" s="8" t="s">
         <v>175</v>
       </c>
@@ -12584,11 +12648,11 @@
         <v>148</v>
       </c>
       <c r="Z17" s="20"/>
-      <c r="AB17" s="121"/>
+      <c r="AB17" s="123"/>
       <c r="AC17" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="AD17" s="122"/>
+      <c r="AD17" s="124"/>
       <c r="AF17" s="8" t="s">
         <v>126</v>
       </c>
@@ -12674,11 +12738,11 @@
         <v>98</v>
       </c>
       <c r="Z18" s="20"/>
-      <c r="AB18" s="121"/>
+      <c r="AB18" s="123"/>
       <c r="AC18" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AD18" s="122"/>
+      <c r="AD18" s="124"/>
       <c r="AF18" s="8" t="s">
         <v>206</v>
       </c>
@@ -12748,11 +12812,11 @@
         <v>98</v>
       </c>
       <c r="Z19" s="20"/>
-      <c r="AB19" s="121"/>
+      <c r="AB19" s="123"/>
       <c r="AC19" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="AD19" s="122"/>
+      <c r="AD19" s="124"/>
       <c r="AF19" s="8" t="s">
         <v>321</v>
       </c>
@@ -12808,11 +12872,11 @@
         <v>98</v>
       </c>
       <c r="Z20" s="20"/>
-      <c r="AB20" s="121"/>
+      <c r="AB20" s="123"/>
       <c r="AC20" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="AD20" s="122"/>
+      <c r="AD20" s="124"/>
       <c r="AF20" s="8" t="s">
         <v>334</v>
       </c>
@@ -12861,11 +12925,11 @@
         <v>98</v>
       </c>
       <c r="Z21" s="44"/>
-      <c r="AB21" s="121"/>
+      <c r="AB21" s="123"/>
       <c r="AC21" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="AD21" s="122"/>
+      <c r="AD21" s="124"/>
       <c r="AF21" s="8" t="s">
         <v>235</v>
       </c>
@@ -12916,11 +12980,11 @@
       <c r="Z22" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="AB22" s="121"/>
+      <c r="AB22" s="123"/>
       <c r="AC22" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="AD22" s="122"/>
+      <c r="AD22" s="124"/>
       <c r="AF22" s="8" t="s">
         <v>218</v>
       </c>
@@ -12971,11 +13035,11 @@
       <c r="Z23" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="AB23" s="121"/>
+      <c r="AB23" s="123"/>
       <c r="AC23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AD23" s="122"/>
+      <c r="AD23" s="124"/>
       <c r="AF23" s="8" t="s">
         <v>365</v>
       </c>
@@ -17154,7 +17218,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17172,18 +17236,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="125" t="s">
         <v>1078</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="123" t="s">
+      <c r="G2" s="126"/>
+      <c r="H2" s="125" t="s">
         <v>1065</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="123" t="s">
+      <c r="I2" s="126"/>
+      <c r="J2" s="125" t="s">
         <v>1067</v>
       </c>
-      <c r="K2" s="124"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="112"/>
@@ -17517,15 +17581,473 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42803ED0-3F2B-4085-A5A7-6E64DCDA9710}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCB60B3-AE3F-4949-ABBD-27B1AB1FFE3D}">
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F2" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131" t="s">
+        <v>975</v>
+      </c>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131" t="s">
+        <v>995</v>
+      </c>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131" t="s">
+        <v>981</v>
+      </c>
+      <c r="M2" s="131"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F3" s="125" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G3" s="126"/>
+      <c r="H3" s="125" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I3" s="126"/>
+      <c r="J3" s="125" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K3" s="126"/>
+      <c r="L3" s="125" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M3" s="126"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="F4" s="99" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H4" s="99" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K4" s="100" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L4" s="99" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M4" s="100" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E5" s="101" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G5" s="127">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="113" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I5" s="127"/>
+      <c r="J5" s="113" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K5" s="127"/>
+      <c r="L5" s="113" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M5" s="127"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E6" s="101" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G6" s="128">
+        <v>0.1716</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I6" s="128"/>
+      <c r="J6" s="102" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K6" s="128"/>
+      <c r="L6" s="102" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M6" s="128"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E7" s="101" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G7" s="129">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H7" s="105" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I7" s="129"/>
+      <c r="J7" s="105" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K7" s="129"/>
+      <c r="L7" s="105" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M7" s="129"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E8" s="106" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G8" s="127">
+        <f>SUM(G5:G7)</f>
+        <v>2.7515999999999998</v>
+      </c>
+      <c r="H8" s="107" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I8" s="127">
+        <f>SUM(I5:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="107" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K8" s="127">
+        <f>SUM(K5:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="107" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M8" s="127">
+        <f>SUM(M5:M7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E9" s="109" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F9" s="110" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G9" s="128">
+        <f>G8*1.3</f>
+        <v>3.57708</v>
+      </c>
+      <c r="H9" s="110" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I9" s="128">
+        <f>I8*1.3</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="110" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K9" s="128">
+        <f>K8*1.3</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="110" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M9" s="128">
+        <f>M8*1.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E10" s="118" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F10" s="119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G10" s="130">
+        <f>G9/30</f>
+        <v>0.11923599999999999</v>
+      </c>
+      <c r="H10" s="119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I10" s="130"/>
+      <c r="J10" s="119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K10" s="130"/>
+      <c r="L10" s="119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M10" s="130"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E12" s="113" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133">
+        <v>1330000</v>
+      </c>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133">
+        <f>J13</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="133"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E13" s="102" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F13" s="132">
+        <v>678750</v>
+      </c>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="117" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F14" s="134"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="134">
+        <f>H13-H12</f>
+        <v>-1330000</v>
+      </c>
+      <c r="I14" s="135"/>
+      <c r="J14" s="134">
+        <f>J13-J12</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="135"/>
+      <c r="L14" s="134">
+        <f>L13-L12</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="135"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="113" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133">
+        <v>10480</v>
+      </c>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133">
+        <f>H16</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133">
+        <f>J16</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="133"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="102" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F16" s="132">
+        <v>7840</v>
+      </c>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E17" s="117" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F17" s="134"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="134">
+        <f>H16-H15</f>
+        <v>-10480</v>
+      </c>
+      <c r="I17" s="135"/>
+      <c r="J17" s="134">
+        <f>J16-J15</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="135"/>
+      <c r="L17" s="134">
+        <f>L16-L15</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E18" s="113" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133">
+        <v>6.54</v>
+      </c>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133">
+        <f>H19</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133">
+        <f>J19</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="133"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E19" s="102" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F19" s="132">
+        <v>5.4</v>
+      </c>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E20" s="117" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F20" s="134"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="134">
+        <f>H19-H18</f>
+        <v>-6.54</v>
+      </c>
+      <c r="I20" s="135"/>
+      <c r="J20" s="134">
+        <f>J19-J18</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="135"/>
+      <c r="L20" s="134">
+        <f>L19-L18</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>